--- a/graph.xlsx
+++ b/graph.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unconsolidated" sheetId="1" r:id="rId1"/>
+    <sheet name="Semi-consolidated" sheetId="2" r:id="rId2"/>
+    <sheet name="Consolidated" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>month</t>
   </si>
@@ -94,6 +96,21 @@
   </si>
   <si>
     <t>windspeed</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>workingday</t>
   </si>
 </sst>
 </file>
@@ -142,8 +159,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -162,7 +207,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -170,6 +215,20 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -177,6 +236,20 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,7 +281,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$Y$1</c:f>
+              <c:f>Unconsolidated!$A$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -291,7 +364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$Y$2</c:f>
+              <c:f>Unconsolidated!$A$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -413,6 +486,324 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Semi-consolidated'!$A$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>season=1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>season=2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>season=3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>season=4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>holiday=0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>holiday=1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>workingday=0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>workingday=1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>weather=1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>weather=2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>weather=3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>weather=4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>temp</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>atemp</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>humidity</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>windspeed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Semi-consolidated'!$A$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.03246199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36406326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02472816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00522502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00545097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00187015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00170732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00140924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00138584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09717849</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09029941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00395881</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00205704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00232776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11205979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15538449</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.07062438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02780788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Consolidated!$A$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>season</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>holiday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>workingday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>weather</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>temp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>atemp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>humidity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>windspeed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Consolidated!$A$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.03246199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36406326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02472816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01425346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00279508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1874779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00834361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11205979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15538449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07062438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02780788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -432,6 +823,78 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -770,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -929,6 +1392,246 @@
         <v>7.062438E-2</v>
       </c>
       <c r="Y2">
+        <v>2.780788E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="D3">
+        <v>2.4728159999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>3.2461990000000003E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.36406326</v>
+      </c>
+      <c r="C2">
+        <v>2.4728159999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.2250200000000004E-3</v>
+      </c>
+      <c r="E2">
+        <v>5.4509700000000003E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.8701499999999999E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.70732E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.40924E-3</v>
+      </c>
+      <c r="I2">
+        <v>1.3858399999999999E-3</v>
+      </c>
+      <c r="J2">
+        <v>9.7178490000000006E-2</v>
+      </c>
+      <c r="K2">
+        <v>9.0299409999999997E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.9588100000000001E-3</v>
+      </c>
+      <c r="M2">
+        <v>2.05704E-3</v>
+      </c>
+      <c r="N2">
+        <v>2.3277599999999999E-3</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.11205979000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.15538448999999999</v>
+      </c>
+      <c r="R2">
+        <v>7.062438E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.780788E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>3.2461990000000003E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.36406326</v>
+      </c>
+      <c r="C2">
+        <v>2.4728159999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.4253459999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.7950800000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.1874779</v>
+      </c>
+      <c r="G2">
+        <v>8.3436099999999996E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.11205979000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.15538448999999999</v>
+      </c>
+      <c r="J2">
+        <v>7.062438E-2</v>
+      </c>
+      <c r="K2">
         <v>2.780788E-2</v>
       </c>
     </row>
